--- a/trunk/FASE 2/AVANCE+/Pendientes 04.05.12.xlsx
+++ b/trunk/FASE 2/AVANCE+/Pendientes 04.05.12.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$55</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="103">
   <si>
     <t>Usuario lider</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>Asegurar y confirmar fechas propuestas para pruebas integrales</t>
+  </si>
+  <si>
+    <t>Mejoras menores</t>
+  </si>
+  <si>
+    <t>Responder acerca del estandar de fecha, si se aplicará para el listado de resultados</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,6 +604,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,10 +908,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2471,7 +2480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="8" customFormat="1" ht="30">
+    <row r="55" spans="1:10" s="8" customFormat="1" ht="30" hidden="1">
       <c r="A55" s="3"/>
       <c r="B55" s="22" t="s">
         <v>99</v>
@@ -2480,7 +2489,7 @@
         <v>100</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>11</v>
@@ -2491,7 +2500,9 @@
       <c r="G55" s="21">
         <v>41095</v>
       </c>
-      <c r="H55" s="22"/>
+      <c r="H55" s="21">
+        <v>41157</v>
+      </c>
       <c r="I55" s="4" t="s">
         <v>7</v>
       </c>
@@ -2499,8 +2510,39 @@
         <v>93</v>
       </c>
     </row>
+    <row r="56" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="A56" s="3"/>
+      <c r="B56" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="21">
+        <v>41004</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="22"/>
+      <c r="I56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="D57" s="29"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J54">
+  <autoFilter ref="A1:J55">
     <filterColumn colId="3">
       <filters>
         <filter val="Pendiente"/>

--- a/trunk/FASE 2/AVANCE+/Pendientes 04.05.12.xlsx
+++ b/trunk/FASE 2/AVANCE+/Pendientes 04.05.12.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="5805"/>
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$58</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="107">
   <si>
     <t>Usuario lider</t>
   </si>
@@ -438,6 +438,18 @@
   </si>
   <si>
     <t>Responder acerca del estandar de fecha, si se aplicará para el listado de resultados</t>
+  </si>
+  <si>
+    <t>Reestablecer librerías</t>
+  </si>
+  <si>
+    <t>Reestablecer librerías del apache tomcat, en vista de que hay problemas con la versión</t>
+  </si>
+  <si>
+    <t>Conexión a SAP - apunta a ambiente entrenamiento</t>
+  </si>
+  <si>
+    <t>Se comunicó la conexión del servidor 13 apuntaba al ambiente de  entrenamiento y que nuestras RFC estaban desarrolladas en el servidor de desarrollo</t>
   </si>
 </sst>
 </file>
@@ -521,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,6 +619,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,10 +926,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2422,7 +2440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="45">
+    <row r="53" spans="1:10" ht="45" hidden="1">
       <c r="A53" s="23"/>
       <c r="B53" s="28" t="s">
         <v>96</v>
@@ -2431,7 +2449,7 @@
         <v>97</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>11</v>
@@ -2442,7 +2460,9 @@
       <c r="G53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="21"/>
+      <c r="H53" s="21">
+        <v>41218</v>
+      </c>
       <c r="I53" s="6" t="s">
         <v>16</v>
       </c>
@@ -2538,11 +2558,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="D57" s="29"/>
+    <row r="57" spans="1:10" s="8" customFormat="1" ht="30" hidden="1">
+      <c r="A57" s="31"/>
+      <c r="B57" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="21">
+        <v>41035</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="21">
+        <v>41219</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="A58" s="3"/>
+      <c r="B58" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="21">
+        <v>41249</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="22"/>
+      <c r="I58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J55">
+  <autoFilter ref="A1:J58">
     <filterColumn colId="3">
       <filters>
         <filter val="Pendiente"/>

--- a/trunk/FASE 2/AVANCE+/Pendientes 04.05.12.xlsx
+++ b/trunk/FASE 2/AVANCE+/Pendientes 04.05.12.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$67</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="132">
   <si>
     <t>Usuario lider</t>
   </si>
@@ -450,6 +450,82 @@
   </si>
   <si>
     <t>Se comunicó la conexión del servidor 13 apuntaba al ambiente de  entrenamiento y que nuestras RFC estaban desarrolladas en el servidor de desarrollo</t>
+  </si>
+  <si>
+    <t>Propuesta de grafico con curva granulométrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se envió una propuesta de grafico de curva granulométrica y combinación de agregados, en vista de los inconvenientes presentados al momento de desplegar la aplicación en su ambiente de entrenamiento, habían problemas con las librerías. </t>
+  </si>
+  <si>
+    <t>Se coordinó por correo con Rnarro, acerca del traslado de RFC del ambiente de desarrollo a entrenamiento. Se envió correo solicitando la tabla de equivalencias</t>
+  </si>
+  <si>
+    <t>13/06/12</t>
+  </si>
+  <si>
+    <t>Traslado de RFC de desarrollo a entrenamiento - data de equivalencia</t>
+  </si>
+  <si>
+    <t>15/06/12</t>
+  </si>
+  <si>
+    <t>Responder a consultas de data de muestras especiales</t>
+  </si>
+  <si>
+    <t>Responder el correo en el que hacemos consultas acerca de los tipos de ensayo que fueron definidos por Ysabel Burneo</t>
+  </si>
+  <si>
+    <t>19/06/2012</t>
+  </si>
+  <si>
+    <t>Ysabel Burneo</t>
+  </si>
+  <si>
+    <t>Se coordinó con Manuel Landa para resolver este tema. Se explicó que la data que está en el BBP al parecer no es la correcta de acuerdo a lo indicado por Isabel Burneo. Y que la ejecución de los scripts requiere de mucho tiempo.</t>
+  </si>
+  <si>
+    <t>Responder a consultas de data de muestras especiales - Manuel Landa</t>
+  </si>
+  <si>
+    <t>25/06/2012</t>
+  </si>
+  <si>
+    <t>Isabel Burneo</t>
+  </si>
+  <si>
+    <t>28/06/2012</t>
+  </si>
+  <si>
+    <t>Consulta acerca de observaciones</t>
+  </si>
+  <si>
+    <t>Responder las consultas de las observaciones enviadas por Fernando Gastañaudi, falta precisar en qué detalles está fallando el gráfico granulométrico y cual es la data de prueba que genera la caida del sistema</t>
+  </si>
+  <si>
+    <t>Volver a probar combinación de agregados</t>
+  </si>
+  <si>
+    <t>Volver a probar grafico de combinación de agregados puesto que se intentó replicar el error indicado y sí generó el gráfico. Las muestras son: 2012-113266 y 2012-113267</t>
+  </si>
+  <si>
+    <t>Consultas y confirmación: Administrar Tipo de Ensayo</t>
+  </si>
+  <si>
+    <t>Consultas: Íconos de acceso directo</t>
+  </si>
+  <si>
+    <t>Responder a consultas de acuerdo a correo enviado</t>
+  </si>
+  <si>
+    <t>Consultas: Administrar Muestra QCX</t>
+  </si>
+  <si>
+    <t>La observación: El sistema debe permitir modificar el campo código muestra QCX, ya que por error de digitación puede escribir otro código. Cabe indicar que el código de muestra QCX en la base de datos es un campo que está como llave primaria, por lo que su cambio puede impactar en otras funcionalidades que estén relacionadas con el código de muestra.Lo que podría hacerse es:
+Cuando se quiera modificar el código de muestra QCX, se genere un nuevo registro con el código reemplazante, sin embargo, de acuerdo al BBP, la combinación proceso, equipo producto, debe ser única, por lo que no se estaría cumpliendo con lo solicitado en este punto. CONFIRMAR</t>
+  </si>
+  <si>
+    <t>23/7/2012</t>
   </si>
 </sst>
 </file>
@@ -506,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -529,11 +605,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,6 +714,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,10 +1033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2588,7 +2695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="8" customFormat="1" ht="60">
+    <row r="58" spans="1:10" s="8" customFormat="1" ht="60" hidden="1">
       <c r="A58" s="3"/>
       <c r="B58" s="13" t="s">
         <v>105</v>
@@ -2597,18 +2704,20 @@
         <v>106</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="25">
         <v>41249</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H58" s="22"/>
+      <c r="H58" s="25">
+        <v>41249</v>
+      </c>
       <c r="I58" s="4" t="s">
         <v>15</v>
       </c>
@@ -2616,8 +2725,270 @@
         <v>7</v>
       </c>
     </row>
+    <row r="59" spans="1:10" ht="90" hidden="1">
+      <c r="B59" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="25">
+        <v>41096</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="60" hidden="1">
+      <c r="B60" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="45" hidden="1">
+      <c r="A61" s="23"/>
+      <c r="B61" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="75" hidden="1">
+      <c r="A62" s="23"/>
+      <c r="B62" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="8" customFormat="1" ht="75" hidden="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="21">
+        <v>40946</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="21">
+        <v>40946</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="A64" s="3"/>
+      <c r="B64" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="21">
+        <v>40946</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="22"/>
+      <c r="I64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="A65" s="3"/>
+      <c r="B65" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="21">
+        <v>41006</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="22"/>
+      <c r="I65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30">
+      <c r="A66" s="23"/>
+      <c r="B66" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="21">
+        <v>41036</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="37"/>
+      <c r="I66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="230.25" hidden="1" customHeight="1">
+      <c r="A67" s="3"/>
+      <c r="B67" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J58">
+  <autoFilter ref="A1:J67">
     <filterColumn colId="3">
       <filters>
         <filter val="Pendiente"/>
